--- a/输入资料/自动化明细表/2020年3月23日版.xlsx
+++ b/输入资料/自动化明细表/2020年3月23日版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14925" tabRatio="745" activeTab="3"/>
+    <workbookView windowWidth="14400" windowHeight="14070" tabRatio="745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -8054,11 +8054,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Narrow"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">M/E START AIR PRESSURE
 </t>
     </r>
@@ -11399,6 +11394,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t>M/E MAIN BEARING L.O INLET PRESS. ,SUPPLY TOO LOW SLOWDOWN</t>
     </r>
     <r>
@@ -11434,6 +11434,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t>M/E  L.O INLET TEMPERATURE TOO HIGH SLOWDOWN</t>
     </r>
     <r>
@@ -11447,6 +11452,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t>M/E CROSSHEAD BEARING  L.O INLET PRESS. ,SUPPLY TOO LOW SLOWDOWN</t>
     </r>
     <r>
@@ -11482,6 +11492,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t>M/E THRUST BEARING OIL TEMP TOO HIGH SLOWDOWN</t>
     </r>
     <r>
@@ -11495,6 +11510,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E. PIST. COOL. OIL TEMP. OUTL. CYL. #1~6
 </t>
     </r>
@@ -11544,6 +11564,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E T/C L.O INLET PRESS. TOO LOW SLOWDOWN
 </t>
     </r>
@@ -11574,6 +11599,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E TURBOCHG. BRNG. OIL TEMP. OUTL. TC TOO HIGH SLD
 </t>
     </r>
@@ -11588,6 +11618,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E JACKET C.W INLET PRESS.TOO LOW SLD
 </t>
     </r>
@@ -11675,6 +11710,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E AIR SPRING  PRESS.,INLET .TOO LOW SLD
 </t>
     </r>
@@ -11716,6 +11756,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ME SCAVENGE AIR TEMP. AFTER AIR COOLER TOO HIGH SLOWDOWN
 </t>
     </r>
@@ -11730,6 +11775,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E  EXH.GAS TEMP.BEFORE T/C TOO HIGH SLOWDOWN </t>
     </r>
     <r>
@@ -11743,6 +11793,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">M/E  EXH.GAS TEMP.AFTER T/C  TOO HIGH SLOWDOWN 
 </t>
     </r>
@@ -24248,19 +24303,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="123">
+  <fonts count="118">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -24474,11 +24529,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <name val="仿宋_GB2312"/>
       <charset val="134"/>
@@ -24594,8 +24644,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -24606,17 +24675,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -24640,61 +24736,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.2"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
@@ -24702,76 +24743,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -24785,15 +24759,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="새굴림"/>
-      <charset val="129"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -24802,6 +24792,74 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.2"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -24815,33 +24873,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -24870,17 +24901,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="새굴림"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="새굴림"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -24912,11 +24943,6 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -25019,7 +25045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25031,19 +25075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25055,85 +25105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25151,7 +25129,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25163,25 +25213,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25193,25 +25261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25223,25 +25273,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25253,7 +25303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25265,43 +25315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26281,56 +26307,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26357,6 +26338,36 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26389,7 +26400,16 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="62"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26399,6 +26419,15 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26421,15 +26450,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -26440,16 +26460,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26497,2161 +26523,2161 @@
   </borders>
   <cellStyleXfs count="759">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="77" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="89" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="89" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="38" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="38" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="49" borderId="93" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="50" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="24" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="24" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="94" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="93" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="93" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="31" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="83" fillId="31" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="24" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="24" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="40" borderId="94" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="96" fillId="38" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="96" fillId="38" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="97" fillId="55" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="97" fillId="55" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="11" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="89" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="89" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="31" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="31" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="49" borderId="93" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="49" borderId="93" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="49" borderId="93" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="82" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="79" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="656" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="657" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="656" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="657" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="656" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="657" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyAlignment="1">
@@ -28723,7 +28749,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28747,10 +28773,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28792,13 +28818,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="4" xfId="656" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="4" xfId="657" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28810,22 +28836,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28855,10 +28881,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28903,7 +28929,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="656" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="657" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28924,7 +28950,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="4" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -28936,7 +28962,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -28952,7 +28978,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -28994,18 +29020,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -29027,15 +29053,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -29045,8 +29071,8 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="350" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="350" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29070,7 +29096,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29106,28 +29132,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="350" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="350" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -29158,10 +29184,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="24" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="350" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29236,19 +29262,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29257,7 +29283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29290,13 +29316,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29308,11 +29334,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="354" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="354" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="354" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="354" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29330,7 +29356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29342,16 +29368,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="44" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="45" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="46" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -29361,13 +29387,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="32" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29388,25 +29414,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="10" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29424,7 +29450,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="52" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29433,8 +29459,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="50" xfId="354" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="354" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="354" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="354" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -29453,13 +29479,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="44" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="44" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="45" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="46" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="46" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29471,13 +29497,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="32" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="32" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29489,13 +29515,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29507,13 +29533,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="25" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29522,61 +29548,61 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="33" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="53" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="54" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="45" xfId="397" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="53" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="59" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="54" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="354" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="34" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="45" xfId="398" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="53" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="53" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="54" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="54" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29591,11 +29617,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="68" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29613,14 +29639,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="72" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="72" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="71" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="71" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -29651,25 +29677,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="75" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="75" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="75" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="75" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="75" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="75" xfId="350" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29684,16 +29710,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="350" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="73" xfId="398" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="73" xfId="397" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="71" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="71" xfId="354" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="350" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -29706,48 +29732,48 @@
   <cellStyles count="759">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="汇总 6" xfId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="3"/>
+    <cellStyle name="输出 2 3 6" xfId="4"/>
     <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="输出 2 3 6" xfId="6"/>
-    <cellStyle name="常规 2 2 4" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="汇总 6" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="千位分隔[0]" xfId="9" builtinId="6"/>
-    <cellStyle name="计算 3 3 4" xfId="10"/>
-    <cellStyle name="计算 2" xfId="11"/>
-    <cellStyle name="汇总 3 5" xfId="12"/>
+    <cellStyle name="注释 2 3 2 5" xfId="10"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="计算 2 5 3" xfId="12"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="13" builtinId="39"/>
-    <cellStyle name="计算 2 5 3" xfId="14"/>
-    <cellStyle name="注释 2 3 2 5" xfId="15"/>
-    <cellStyle name="差" xfId="16" builtinId="27"/>
+    <cellStyle name="计算 3 3 4" xfId="14"/>
+    <cellStyle name="计算 2" xfId="15"/>
+    <cellStyle name="汇总 3 5" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
-    <cellStyle name="计算 2 3 2 5" xfId="18"/>
-    <cellStyle name="汇总 2 8" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="20"/>
-    <cellStyle name="超级链接_通讯录" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="22" builtinId="40"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2 2" xfId="23"/>
-    <cellStyle name="汇总 2 2 6" xfId="24"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8"/>
+    <cellStyle name="汇总 2 2 6" xfId="19"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2 2" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
+    <cellStyle name="超级链接_通讯录" xfId="22"/>
+    <cellStyle name="计算 2 3 2 5" xfId="23"/>
+    <cellStyle name="汇总 2 8" xfId="24"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="25"/>
     <cellStyle name="百分比" xfId="26" builtinId="5"/>
-    <cellStyle name="计算 2 2 2 5" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="28"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="29"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2 2" xfId="31"/>
-    <cellStyle name="注释" xfId="32" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="33"/>
-    <cellStyle name="汇总 3 2 2 5" xfId="34"/>
-    <cellStyle name="输出 4 5" xfId="35"/>
-    <cellStyle name="常规 6" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="27"/>
+    <cellStyle name="计算 2 2 2 5" xfId="28"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="31"/>
+    <cellStyle name="输出 4 5" xfId="32"/>
+    <cellStyle name="常规 6" xfId="33"/>
+    <cellStyle name="注释" xfId="34" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="35"/>
+    <cellStyle name="汇总 3 2 2 5" xfId="36"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="37" builtinId="36"/>
     <cellStyle name="解释性文本 2 2" xfId="38"/>
     <cellStyle name="标题 4" xfId="39" builtinId="19"/>
     <cellStyle name="警告文本" xfId="40" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="41"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="42"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="43"/>
+    <cellStyle name="常规 5 2" xfId="43"/>
     <cellStyle name="标题" xfId="44" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="45" builtinId="53"/>
     <cellStyle name="标题 1" xfId="46" builtinId="16"/>
@@ -29756,239 +29782,239 @@
     <cellStyle name="计算 2 8" xfId="49"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="50" builtinId="32"/>
     <cellStyle name="标题 3" xfId="51" builtinId="18"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="52"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="52" builtinId="44"/>
     <cellStyle name="输出" xfId="53" builtinId="21"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="54" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="54"/>
     <cellStyle name="计算" xfId="55" builtinId="22"/>
     <cellStyle name="计算 2 3 3" xfId="56"/>
-    <cellStyle name="计算 3 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="57"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="58"/>
-    <cellStyle name="检查单元格" xfId="59" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="60"/>
+    <cellStyle name="计算 3 2" xfId="59"/>
+    <cellStyle name="检查单元格" xfId="60" builtinId="23"/>
     <cellStyle name="汇总 3 2 4" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="62" builtinId="50"/>
     <cellStyle name="汇总 2 4 3" xfId="63"/>
     <cellStyle name="强调文字颜色 2" xfId="64" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="65" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2 2" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="67"/>
-    <cellStyle name="计算 5 5" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="69"/>
-    <cellStyle name="汇总" xfId="70" builtinId="25"/>
-    <cellStyle name="Header2 2 2 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2 2" xfId="72"/>
-    <cellStyle name="好" xfId="73" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="74"/>
-    <cellStyle name="适中" xfId="75" builtinId="28"/>
-    <cellStyle name="计算 2 6 2" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="77"/>
-    <cellStyle name="汇总 3 2 3" xfId="78"/>
-    <cellStyle name="常规 8 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="80" builtinId="46"/>
-    <cellStyle name="汇总 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 1" xfId="82" builtinId="29"/>
-    <cellStyle name="链接单元格 3" xfId="83"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="85" builtinId="30"/>
-    <cellStyle name="计算 3 3 2" xfId="86"/>
-    <cellStyle name="汇总 3 3" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="88" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2 2" xfId="89"/>
-    <cellStyle name="输出 2" xfId="90"/>
-    <cellStyle name="链接单元格 4" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="92" builtinId="34"/>
-    <cellStyle name="计算 3 3 3" xfId="93"/>
-    <cellStyle name="汇总 3 4" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="95" builtinId="35"/>
-    <cellStyle name="汇总 2 4 4" xfId="96"/>
-    <cellStyle name="强调文字颜色 3" xfId="97" builtinId="37"/>
-    <cellStyle name="汇总 2 4 5" xfId="98"/>
-    <cellStyle name="强调文字颜色 4" xfId="99" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="100"/>
-    <cellStyle name="汇总 3 2 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="102" builtinId="42"/>
-    <cellStyle name="计算 3 3 5" xfId="103"/>
-    <cellStyle name="计算 3" xfId="104"/>
-    <cellStyle name="汇总 3 6" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="106" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="107" builtinId="45"/>
-    <cellStyle name="计算 4" xfId="108"/>
-    <cellStyle name="汇总 3 7" xfId="109"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="110" builtinId="47"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="111"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="112" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="113" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="114"/>
-    <cellStyle name="计算 5" xfId="115"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="116" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="117" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="66"/>
+    <cellStyle name="计算 5 5" xfId="67"/>
+    <cellStyle name="汇总" xfId="68" builtinId="25"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2 2" xfId="69"/>
+    <cellStyle name="Header2 2 2 2" xfId="70"/>
+    <cellStyle name="好" xfId="71" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="72"/>
+    <cellStyle name="适中" xfId="73" builtinId="28"/>
+    <cellStyle name="常规 8 2" xfId="74"/>
+    <cellStyle name="汇总 3 2 3" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="76" builtinId="46"/>
+    <cellStyle name="汇总 2 4 2" xfId="77"/>
+    <cellStyle name="强调文字颜色 1" xfId="78" builtinId="29"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="79"/>
+    <cellStyle name="链接单元格 3" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="81" builtinId="30"/>
+    <cellStyle name="汇总 3 3" xfId="82"/>
+    <cellStyle name="计算 3 3 2" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="84" builtinId="31"/>
+    <cellStyle name="链接单元格 4" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2 2" xfId="86"/>
+    <cellStyle name="输出 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="88" builtinId="34"/>
+    <cellStyle name="汇总 3 4" xfId="89"/>
+    <cellStyle name="计算 3 3 3" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="91" builtinId="35"/>
+    <cellStyle name="汇总 2 4 4" xfId="92"/>
+    <cellStyle name="强调文字颜色 3" xfId="93" builtinId="37"/>
+    <cellStyle name="汇总 2 4 5" xfId="94"/>
+    <cellStyle name="强调文字颜色 4" xfId="95" builtinId="41"/>
+    <cellStyle name="汇总 3 2 2" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="97" builtinId="42"/>
+    <cellStyle name="汇总 3 6" xfId="98"/>
+    <cellStyle name="计算 3" xfId="99"/>
+    <cellStyle name="计算 3 3 5" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="101" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="102" builtinId="45"/>
+    <cellStyle name="汇总 3 7" xfId="103"/>
+    <cellStyle name="计算 4" xfId="104"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="105" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="106" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="107" builtinId="49"/>
+    <cellStyle name="计算 5" xfId="108"/>
+    <cellStyle name="适中 2" xfId="109"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="110" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="111" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="114"/>
+    <cellStyle name="计算 2 6 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="118"/>
     <cellStyle name="常规 3 2 5" xfId="119"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="120"/>
-    <cellStyle name="Header2 2 7" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="122"/>
-    <cellStyle name="标题 3 4" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="121"/>
+    <cellStyle name="Header2 2 7" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2 2" xfId="123"/>
+    <cellStyle name="标题 3 4" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="125"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="126"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="128"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="127"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="129"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 4 2 2" xfId="131"/>
     <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="132"/>
-    <cellStyle name="汇总 3 2 2 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="133"/>
     <cellStyle name="输出 4 2" xfId="134"/>
     <cellStyle name="常规 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="136"/>
-    <cellStyle name="常规 3 2" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="138"/>
-    <cellStyle name="汇总 3 2 2 3" xfId="139"/>
+    <cellStyle name="汇总 3 2 2 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="137"/>
+    <cellStyle name="常规 3 2" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="139"/>
     <cellStyle name="输出 4 3" xfId="140"/>
     <cellStyle name="常规 4" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="142"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="143"/>
-    <cellStyle name="汇总 3 2 2 4" xfId="144"/>
-    <cellStyle name="输出 4 4" xfId="145"/>
-    <cellStyle name="常规 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="147"/>
-    <cellStyle name="常规 5 3" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="149"/>
+    <cellStyle name="汇总 3 2 2 3" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="143"/>
+    <cellStyle name="输出 4 4" xfId="144"/>
+    <cellStyle name="常规 5" xfId="145"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="146"/>
+    <cellStyle name="汇总 3 2 2 4" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="148"/>
+    <cellStyle name="常规 5 3" xfId="149"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="152"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="154"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="153"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="155"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="156"/>
     <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="157"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="158"/>
-    <cellStyle name="计算 3 4" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="159"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="161"/>
+    <cellStyle name="计算 3 4" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="162"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="164"/>
-    <cellStyle name="计算 5 4" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="166"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="168"/>
-    <cellStyle name="汇总 3 3 2" xfId="169"/>
+    <cellStyle name="计算 5 4" xfId="168"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="169"/>
     <cellStyle name="Normal_#18-Internet" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="171"/>
+    <cellStyle name="汇总 3 3 2" xfId="171"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="172"/>
-    <cellStyle name="汇总 3 3 3" xfId="173"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="174"/>
-    <cellStyle name="常规 9 2" xfId="175"/>
-    <cellStyle name="汇总 3 3 4" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="177"/>
-    <cellStyle name="常规 9 3" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
+    <cellStyle name="常规 9 2" xfId="174"/>
+    <cellStyle name="汇总 3 3 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
+    <cellStyle name="常规 9 3" xfId="177"/>
+    <cellStyle name="汇总 3 3 4" xfId="178"/>
     <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="179"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2 2" xfId="180"/>
     <cellStyle name="常规 2 6" xfId="181"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2 2" xfId="182"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="182"/>
     <cellStyle name="40% - 强调文字颜色 1 4 3" xfId="183"/>
-    <cellStyle name="汇总 3 4 2" xfId="184"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="185"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="184"/>
+    <cellStyle name="汇总 3 4 2" xfId="185"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="186"/>
-    <cellStyle name="汇总 3 4 3" xfId="187"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="188"/>
-    <cellStyle name="汇总 3 4 4" xfId="189"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="187"/>
+    <cellStyle name="汇总 3 4 3" xfId="188"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="189"/>
     <cellStyle name="Header2 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="191"/>
-    <cellStyle name="Header2 2 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="193"/>
-    <cellStyle name="Header2 2 3" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="195"/>
-    <cellStyle name="计算 2 2" xfId="196"/>
+    <cellStyle name="汇总 3 4 4" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="192"/>
+    <cellStyle name="Header2 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="194"/>
+    <cellStyle name="Header2 2 3" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="196"/>
     <cellStyle name="汇总 3 5 2" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="198"/>
-    <cellStyle name="计算 2 2 2" xfId="199"/>
-    <cellStyle name="注释 3 5" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="计算 2 3" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="203"/>
-    <cellStyle name="计算 2 4" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="205"/>
-    <cellStyle name="计算 2 4 2" xfId="206"/>
-    <cellStyle name="注释 5 5" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="208"/>
+    <cellStyle name="计算 2 2" xfId="198"/>
+    <cellStyle name="注释 3 5" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="200"/>
+    <cellStyle name="计算 2 2 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="202"/>
+    <cellStyle name="计算 2 3" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="204"/>
+    <cellStyle name="计算 2 4" xfId="205"/>
+    <cellStyle name="注释 5 5" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="207"/>
+    <cellStyle name="计算 2 4 2" xfId="208"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2 2" xfId="209"/>
-    <cellStyle name="计算 2 4 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="211"/>
-    <cellStyle name="检查单元格 2" xfId="212"/>
-    <cellStyle name="计算 3 2 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="210"/>
+    <cellStyle name="计算 2 4 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="212"/>
+    <cellStyle name="标题 4 4" xfId="213"/>
     <cellStyle name="汇总 2 3" xfId="214"/>
-    <cellStyle name="标题 4 4" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="216"/>
-    <cellStyle name="计算 3 3" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="218"/>
-    <cellStyle name="计算 3 4 2" xfId="219"/>
+    <cellStyle name="计算 3 2 2" xfId="215"/>
+    <cellStyle name="检查单元格 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="217"/>
+    <cellStyle name="计算 3 3" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="219"/>
     <cellStyle name="汇总 4 3" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="221"/>
+    <cellStyle name="计算 3 4 2" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 4 4 2 2" xfId="222"/>
-    <cellStyle name="计算 3 4 3" xfId="223"/>
-    <cellStyle name="汇总 4 4" xfId="224"/>
-    <cellStyle name="百分比 2 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="226"/>
-    <cellStyle name="计算 4 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="228"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="230"/>
-    <cellStyle name="计算 4 3" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="232"/>
-    <cellStyle name="计算 4 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="234"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="236"/>
-    <cellStyle name="60% - 强调文字颜色 6 4" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="238"/>
-    <cellStyle name="适中 2 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="223"/>
+    <cellStyle name="百分比 2 2 2" xfId="224"/>
+    <cellStyle name="汇总 4 4" xfId="225"/>
+    <cellStyle name="计算 3 4 3" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="227"/>
+    <cellStyle name="计算 4 2" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="229"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="231"/>
+    <cellStyle name="计算 4 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="233"/>
+    <cellStyle name="计算 4 4" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="235"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="237"/>
+    <cellStyle name="60% - 强调文字颜色 6 4" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="239"/>
     <cellStyle name="计算 5 2" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="241"/>
+    <cellStyle name="适中 2 2" xfId="241"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="242"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="243"/>
     <cellStyle name="计算 5 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="245"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="245"/>
     <cellStyle name="40% - 强调文字颜色 6 4 2 2" xfId="246"/>
-    <cellStyle name="标题 1 2 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="248"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="249"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="247"/>
+    <cellStyle name="标题 1 2 2" xfId="248"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="249"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="250"/>
     <cellStyle name="输出 2 2 3 2" xfId="251"/>
     <cellStyle name="60% - 强调文字颜色 1 4" xfId="252"/>
-    <cellStyle name="输出 4 6" xfId="253"/>
-    <cellStyle name="常规 7" xfId="254"/>
-    <cellStyle name="输出 2 2 4 2" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 4" xfId="256"/>
+    <cellStyle name="输出 2 2 4 2" xfId="253"/>
+    <cellStyle name="60% - 强调文字颜色 2 4" xfId="254"/>
+    <cellStyle name="输出 4 6" xfId="255"/>
+    <cellStyle name="常规 7" xfId="256"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="257"/>
     <cellStyle name="60% - 强调文字颜色 3 4" xfId="258"/>
-    <cellStyle name="常规 9 2 7 7" xfId="259"/>
-    <cellStyle name="60% - 强调文字颜色 4 4" xfId="260"/>
+    <cellStyle name="60% - 强调文字颜色 4 4" xfId="259"/>
+    <cellStyle name="常规 9 2 7 7" xfId="260"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="261"/>
-    <cellStyle name="常规 2 5 3" xfId="262"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="263"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="262"/>
+    <cellStyle name="常规 2 5 3" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="264"/>
     <cellStyle name="60% - 强调文字颜色 5 4" xfId="265"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="266"/>
-    <cellStyle name="Header2" xfId="267"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="268"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="267"/>
+    <cellStyle name="Header2" xfId="268"/>
     <cellStyle name="Calc Currency (0)" xfId="269"/>
     <cellStyle name="Header1" xfId="270"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="271"/>
-    <cellStyle name="好 2" xfId="272"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="273"/>
-    <cellStyle name="好 2 2" xfId="274"/>
-    <cellStyle name="Header2 2 2 2 2 2" xfId="275"/>
-    <cellStyle name="好 3" xfId="276"/>
-    <cellStyle name="Header2 2 2 2 3" xfId="277"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="272"/>
+    <cellStyle name="好 2" xfId="273"/>
+    <cellStyle name="Header2 2 2 2 2 2" xfId="274"/>
+    <cellStyle name="好 2 2" xfId="275"/>
+    <cellStyle name="Header2 2 2 2 3" xfId="276"/>
+    <cellStyle name="好 3" xfId="277"/>
     <cellStyle name="Header2 2 2 2 3 2" xfId="278"/>
-    <cellStyle name="好 4" xfId="279"/>
+    <cellStyle name="Header2 2 2 2 4" xfId="279"/>
     <cellStyle name="常规 9 2 7 7 2 2" xfId="280"/>
-    <cellStyle name="Header2 2 2 2 4" xfId="281"/>
+    <cellStyle name="好 4" xfId="281"/>
     <cellStyle name="Header2 2 2 2 4 2" xfId="282"/>
-    <cellStyle name="标题 3 2 2" xfId="283"/>
-    <cellStyle name="Header2 2 2 2 5" xfId="284"/>
+    <cellStyle name="Header2 2 2 2 5" xfId="283"/>
+    <cellStyle name="标题 3 2 2" xfId="284"/>
     <cellStyle name="Header2 2 2 2 5 2" xfId="285"/>
     <cellStyle name="Header2 2 2 3" xfId="286"/>
     <cellStyle name="Header2 2 2 3 2" xfId="287"/>
@@ -29996,8 +30022,8 @@
     <cellStyle name="Header2 2 2 3 3" xfId="289"/>
     <cellStyle name="Header2 2 2 3 3 2" xfId="290"/>
     <cellStyle name="Header2 2 2 3 4" xfId="291"/>
-    <cellStyle name="Header2 2 2 3 6" xfId="292"/>
-    <cellStyle name="Header2 2 2 3 4 2" xfId="293"/>
+    <cellStyle name="Header2 2 2 3 4 2" xfId="292"/>
+    <cellStyle name="Header2 2 2 3 6" xfId="293"/>
     <cellStyle name="Header2 2 2 3 5" xfId="294"/>
     <cellStyle name="Header2 2 2 3 5 2" xfId="295"/>
     <cellStyle name="Header2 2 2 4" xfId="296"/>
@@ -30013,23 +30039,23 @@
     <cellStyle name="Header2 2 4 3" xfId="306"/>
     <cellStyle name="Header2 2 4 4" xfId="307"/>
     <cellStyle name="Header2 2 5" xfId="308"/>
-    <cellStyle name="标题 1 4" xfId="309"/>
-    <cellStyle name="Header2 2 5 2" xfId="310"/>
+    <cellStyle name="Header2 2 5 2" xfId="309"/>
+    <cellStyle name="标题 1 4" xfId="310"/>
     <cellStyle name="Header2 2 6" xfId="311"/>
-    <cellStyle name="标题 2 4" xfId="312"/>
-    <cellStyle name="Header2 2 6 2" xfId="313"/>
+    <cellStyle name="Header2 2 6 2" xfId="312"/>
+    <cellStyle name="标题 2 4" xfId="313"/>
     <cellStyle name="Header2 3" xfId="314"/>
-    <cellStyle name="差 4" xfId="315"/>
-    <cellStyle name="百分比 2" xfId="316"/>
-    <cellStyle name="千位[0]_p1" xfId="317"/>
-    <cellStyle name="百分比 2 2" xfId="318"/>
+    <cellStyle name="百分比 2" xfId="315"/>
+    <cellStyle name="差 4" xfId="316"/>
+    <cellStyle name="百分比 2 2" xfId="317"/>
+    <cellStyle name="千位[0]_p1" xfId="318"/>
     <cellStyle name="百分比 2 3" xfId="319"/>
-    <cellStyle name="汇总 5 4" xfId="320"/>
-    <cellStyle name="百分比 2 3 2" xfId="321"/>
-    <cellStyle name="常规 9 2 7 7 2" xfId="322"/>
-    <cellStyle name="捠壿 [0.00]_laroux" xfId="323"/>
-    <cellStyle name="标题 3 3" xfId="324"/>
-    <cellStyle name="捠壿_laroux" xfId="325"/>
+    <cellStyle name="百分比 2 3 2" xfId="320"/>
+    <cellStyle name="汇总 5 4" xfId="321"/>
+    <cellStyle name="捠壿 [0.00]_laroux" xfId="322"/>
+    <cellStyle name="常规 9 2 7 7 2" xfId="323"/>
+    <cellStyle name="捠壿_laroux" xfId="324"/>
+    <cellStyle name="标题 3 3" xfId="325"/>
     <cellStyle name="标题 1 2" xfId="326"/>
     <cellStyle name="标题 1 3" xfId="327"/>
     <cellStyle name="标题 2 2" xfId="328"/>
@@ -30038,16 +30064,16 @@
     <cellStyle name="标题 3 2" xfId="331"/>
     <cellStyle name="标题 4 2" xfId="332"/>
     <cellStyle name="标题 4 2 2" xfId="333"/>
-    <cellStyle name="汇总 2 2" xfId="334"/>
-    <cellStyle name="标题 4 3" xfId="335"/>
+    <cellStyle name="标题 4 3" xfId="334"/>
+    <cellStyle name="汇总 2 2" xfId="335"/>
     <cellStyle name="标题 5" xfId="336"/>
-    <cellStyle name="强调文字颜色 1 4" xfId="337"/>
-    <cellStyle name="标题 5 2" xfId="338"/>
+    <cellStyle name="标题 5 2" xfId="337"/>
+    <cellStyle name="强调文字颜色 1 4" xfId="338"/>
     <cellStyle name="标题 6" xfId="339"/>
     <cellStyle name="标题 7" xfId="340"/>
     <cellStyle name="差 2" xfId="341"/>
-    <cellStyle name="汇总 2 2 3 5" xfId="342"/>
-    <cellStyle name="差 2 2" xfId="343"/>
+    <cellStyle name="差 2 2" xfId="342"/>
+    <cellStyle name="汇总 2 2 3 5" xfId="343"/>
     <cellStyle name="差 3" xfId="344"/>
     <cellStyle name="常规 11" xfId="345"/>
     <cellStyle name="常规 2" xfId="346"/>
@@ -30074,46 +30100,46 @@
     <cellStyle name="常规 2 4" xfId="367"/>
     <cellStyle name="输出 2 5 4" xfId="368"/>
     <cellStyle name="常规 2 4 2" xfId="369"/>
-    <cellStyle name="计算 2 2 6" xfId="370"/>
+    <cellStyle name="常规 2 4 2 2" xfId="370"/>
     <cellStyle name="计算 2 2 2 4" xfId="371"/>
-    <cellStyle name="常规 2 4 2 2" xfId="372"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="373"/>
-    <cellStyle name="常规 2 5" xfId="374"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="375"/>
-    <cellStyle name="常规 2 5 2" xfId="376"/>
-    <cellStyle name="强调文字颜色 4 4" xfId="377"/>
-    <cellStyle name="常规 2 7" xfId="378"/>
-    <cellStyle name="适中 4" xfId="379"/>
-    <cellStyle name="计算 7" xfId="380"/>
-    <cellStyle name="输出 3 3 4" xfId="381"/>
-    <cellStyle name="常规 3 2 2" xfId="382"/>
-    <cellStyle name="计算 7 2" xfId="383"/>
-    <cellStyle name="常规 3 2 2 2" xfId="384"/>
-    <cellStyle name="计算 8" xfId="385"/>
-    <cellStyle name="输出 3 3 5" xfId="386"/>
-    <cellStyle name="常规 3 2 3" xfId="387"/>
+    <cellStyle name="计算 2 2 6" xfId="372"/>
+    <cellStyle name="常规 2 5" xfId="373"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="374"/>
+    <cellStyle name="常规 2 5 2" xfId="375"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="376"/>
+    <cellStyle name="常规 2 7" xfId="377"/>
+    <cellStyle name="强调文字颜色 4 4" xfId="378"/>
+    <cellStyle name="输出 3 3 4" xfId="379"/>
+    <cellStyle name="常规 3 2 2" xfId="380"/>
+    <cellStyle name="计算 7" xfId="381"/>
+    <cellStyle name="适中 4" xfId="382"/>
+    <cellStyle name="常规 3 2 2 2" xfId="383"/>
+    <cellStyle name="计算 7 2" xfId="384"/>
+    <cellStyle name="输出 3 3 5" xfId="385"/>
+    <cellStyle name="常规 3 2 3" xfId="386"/>
+    <cellStyle name="计算 8" xfId="387"/>
     <cellStyle name="常规 3 2 4" xfId="388"/>
     <cellStyle name="常规 3 3" xfId="389"/>
     <cellStyle name="常规 3 4" xfId="390"/>
     <cellStyle name="常规 3 4 2" xfId="391"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="392"/>
-    <cellStyle name="常规 3 5" xfId="393"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="394"/>
-    <cellStyle name="常规 3 6" xfId="395"/>
-    <cellStyle name="汇总 3 2 6" xfId="396"/>
-    <cellStyle name="输出 8" xfId="397"/>
-    <cellStyle name="常规 3_EXCEL 中英文格式（标准）" xfId="398"/>
+    <cellStyle name="常规 3 5" xfId="392"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="393"/>
+    <cellStyle name="常规 3 6" xfId="394"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="395"/>
+    <cellStyle name="输出 8" xfId="396"/>
+    <cellStyle name="常规 3_EXCEL 中英文格式（标准）" xfId="397"/>
+    <cellStyle name="汇总 3 2 6" xfId="398"/>
     <cellStyle name="常规 4 2" xfId="399"/>
     <cellStyle name="常规 4 2 2" xfId="400"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="401"/>
-    <cellStyle name="常规 4 2 3" xfId="402"/>
+    <cellStyle name="常规 4 2 3" xfId="401"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="402"/>
     <cellStyle name="常规 4 3" xfId="403"/>
-    <cellStyle name="注释 2" xfId="404"/>
-    <cellStyle name="千位_p1" xfId="405"/>
-    <cellStyle name="常规 6 2" xfId="406"/>
-    <cellStyle name="计算 4 6" xfId="407"/>
-    <cellStyle name="输入 2 3 5" xfId="408"/>
-    <cellStyle name="常规 6 2 2" xfId="409"/>
+    <cellStyle name="常规 6 2" xfId="404"/>
+    <cellStyle name="注释 2" xfId="405"/>
+    <cellStyle name="千位_p1" xfId="406"/>
+    <cellStyle name="输入 2 3 5" xfId="407"/>
+    <cellStyle name="常规 6 2 2" xfId="408"/>
+    <cellStyle name="计算 4 6" xfId="409"/>
     <cellStyle name="常规 7 2" xfId="410"/>
     <cellStyle name="常规 8" xfId="411"/>
     <cellStyle name="常规 9" xfId="412"/>
@@ -30133,69 +30159,69 @@
     <cellStyle name="汇总 2 2 4" xfId="426"/>
     <cellStyle name="汇总 2 2 4 2" xfId="427"/>
     <cellStyle name="汇总 2 2 5" xfId="428"/>
-    <cellStyle name="检查单元格 2 2" xfId="429"/>
+    <cellStyle name="汇总 2 3 2" xfId="429"/>
     <cellStyle name="计算 3 2 2 2" xfId="430"/>
-    <cellStyle name="汇总 2 3 2" xfId="431"/>
+    <cellStyle name="检查单元格 2 2" xfId="431"/>
     <cellStyle name="汇总 2 3 2 2" xfId="432"/>
     <cellStyle name="汇总 2 3 2 3" xfId="433"/>
     <cellStyle name="汇总 2 3 2 4" xfId="434"/>
     <cellStyle name="汇总 2 3 2 5" xfId="435"/>
-    <cellStyle name="计算 3 2 2 3" xfId="436"/>
-    <cellStyle name="汇总 2 3 3" xfId="437"/>
-    <cellStyle name="计算 3 2 2 4" xfId="438"/>
-    <cellStyle name="汇总 2 3 4" xfId="439"/>
-    <cellStyle name="计算 3 2 2 5" xfId="440"/>
-    <cellStyle name="汇总 2 3 5" xfId="441"/>
+    <cellStyle name="汇总 2 3 3" xfId="436"/>
+    <cellStyle name="计算 3 2 2 3" xfId="437"/>
+    <cellStyle name="汇总 2 3 4" xfId="438"/>
+    <cellStyle name="计算 3 2 2 4" xfId="439"/>
+    <cellStyle name="汇总 2 3 5" xfId="440"/>
+    <cellStyle name="计算 3 2 2 5" xfId="441"/>
     <cellStyle name="汇总 2 3 6" xfId="442"/>
-    <cellStyle name="检查单元格 3" xfId="443"/>
+    <cellStyle name="汇总 2 4" xfId="443"/>
     <cellStyle name="计算 3 2 3" xfId="444"/>
-    <cellStyle name="汇总 2 4" xfId="445"/>
-    <cellStyle name="检查单元格 4" xfId="446"/>
-    <cellStyle name="计算 3 2 4" xfId="447"/>
-    <cellStyle name="计算 2 3 2 2" xfId="448"/>
-    <cellStyle name="汇总 2 5" xfId="449"/>
+    <cellStyle name="检查单元格 3" xfId="445"/>
+    <cellStyle name="汇总 2 5" xfId="446"/>
+    <cellStyle name="计算 2 3 2 2" xfId="447"/>
+    <cellStyle name="计算 3 2 4" xfId="448"/>
+    <cellStyle name="检查单元格 4" xfId="449"/>
     <cellStyle name="汇总 2 5 2" xfId="450"/>
     <cellStyle name="汇总 2 5 3" xfId="451"/>
     <cellStyle name="汇总 2 5 4" xfId="452"/>
-    <cellStyle name="计算 3 2 5" xfId="453"/>
+    <cellStyle name="汇总 2 6" xfId="453"/>
     <cellStyle name="计算 2 3 2 3" xfId="454"/>
-    <cellStyle name="汇总 2 6" xfId="455"/>
+    <cellStyle name="计算 3 2 5" xfId="455"/>
     <cellStyle name="汇总 2 6 2" xfId="456"/>
-    <cellStyle name="计算 3 2 6" xfId="457"/>
+    <cellStyle name="汇总 2 7" xfId="457"/>
     <cellStyle name="计算 2 3 2 4" xfId="458"/>
-    <cellStyle name="汇总 2 7" xfId="459"/>
+    <cellStyle name="计算 3 2 6" xfId="459"/>
     <cellStyle name="汇总 3" xfId="460"/>
     <cellStyle name="汇总 3 2" xfId="461"/>
     <cellStyle name="汇总 3 2 5" xfId="462"/>
     <cellStyle name="汇总 3 3 5" xfId="463"/>
     <cellStyle name="汇总 4" xfId="464"/>
     <cellStyle name="汇总 4 2" xfId="465"/>
-    <cellStyle name="计算 3 4 4" xfId="466"/>
-    <cellStyle name="汇总 4 5" xfId="467"/>
+    <cellStyle name="汇总 4 5" xfId="466"/>
+    <cellStyle name="计算 3 4 4" xfId="467"/>
     <cellStyle name="汇总 4 6" xfId="468"/>
     <cellStyle name="汇总 5" xfId="469"/>
     <cellStyle name="汇总 5 2" xfId="470"/>
-    <cellStyle name="计算 3 5 2" xfId="471"/>
-    <cellStyle name="汇总 5 3" xfId="472"/>
+    <cellStyle name="汇总 5 3" xfId="471"/>
+    <cellStyle name="计算 3 5 2" xfId="472"/>
     <cellStyle name="汇总 5 5" xfId="473"/>
     <cellStyle name="汇总 6 2" xfId="474"/>
     <cellStyle name="汇总 7" xfId="475"/>
     <cellStyle name="汇总 7 2" xfId="476"/>
     <cellStyle name="汇总 7 3" xfId="477"/>
-    <cellStyle name="计算 2 2 4" xfId="478"/>
-    <cellStyle name="计算 2 2 2 2" xfId="479"/>
-    <cellStyle name="计算 2 2 5" xfId="480"/>
-    <cellStyle name="计算 2 2 2 3" xfId="481"/>
+    <cellStyle name="计算 2 2 2 2" xfId="478"/>
+    <cellStyle name="计算 2 2 4" xfId="479"/>
+    <cellStyle name="计算 2 2 2 3" xfId="480"/>
+    <cellStyle name="计算 2 2 5" xfId="481"/>
     <cellStyle name="计算 2 2 3" xfId="482"/>
-    <cellStyle name="计算 2 3 4" xfId="483"/>
-    <cellStyle name="计算 2 2 3 2" xfId="484"/>
-    <cellStyle name="计算 2 3 5" xfId="485"/>
-    <cellStyle name="计算 2 2 3 3" xfId="486"/>
-    <cellStyle name="计算 2 3 6" xfId="487"/>
-    <cellStyle name="计算 2 2 3 4" xfId="488"/>
+    <cellStyle name="计算 2 2 3 2" xfId="483"/>
+    <cellStyle name="计算 2 3 4" xfId="484"/>
+    <cellStyle name="计算 2 2 3 3" xfId="485"/>
+    <cellStyle name="计算 2 3 5" xfId="486"/>
+    <cellStyle name="计算 2 2 3 4" xfId="487"/>
+    <cellStyle name="计算 2 3 6" xfId="488"/>
     <cellStyle name="计算 2 2 3 5" xfId="489"/>
-    <cellStyle name="计算 2 4 4" xfId="490"/>
-    <cellStyle name="计算 2 2 4 2" xfId="491"/>
+    <cellStyle name="计算 2 2 4 2" xfId="490"/>
+    <cellStyle name="计算 2 4 4" xfId="491"/>
     <cellStyle name="计算 2 3 2" xfId="492"/>
     <cellStyle name="计算 2 4 5" xfId="493"/>
     <cellStyle name="计算 2 5" xfId="494"/>
@@ -30207,8 +30233,8 @@
     <cellStyle name="计算 3 6" xfId="500"/>
     <cellStyle name="计算 3 7" xfId="501"/>
     <cellStyle name="计算 4 5" xfId="502"/>
-    <cellStyle name="适中 3" xfId="503"/>
-    <cellStyle name="计算 6" xfId="504"/>
+    <cellStyle name="计算 6" xfId="503"/>
+    <cellStyle name="适中 3" xfId="504"/>
     <cellStyle name="计算 6 2" xfId="505"/>
     <cellStyle name="计算 7 3" xfId="506"/>
     <cellStyle name="解释性文本 2" xfId="507"/>
@@ -30229,8 +30255,8 @@
     <cellStyle name="强调文字颜色 1 2 2" xfId="522"/>
     <cellStyle name="强调文字颜色 1 3" xfId="523"/>
     <cellStyle name="强调文字颜色 2 2" xfId="524"/>
-    <cellStyle name="输出 3 2 2 3" xfId="525"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="526"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="525"/>
+    <cellStyle name="输出 3 2 2 3" xfId="526"/>
     <cellStyle name="强调文字颜色 2 3" xfId="527"/>
     <cellStyle name="强调文字颜色 2 4" xfId="528"/>
     <cellStyle name="强调文字颜色 3 2" xfId="529"/>
@@ -30360,8 +30386,8 @@
     <cellStyle name="输入 3 4 2" xfId="653"/>
     <cellStyle name="输入 3 4 3" xfId="654"/>
     <cellStyle name="输入 3 4 4" xfId="655"/>
-    <cellStyle name="표준_Sensor list for S35MC-MK7 STD EOD 2" xfId="656"/>
-    <cellStyle name="输入 3 5" xfId="657"/>
+    <cellStyle name="输入 3 5" xfId="656"/>
+    <cellStyle name="표준_Sensor list for S35MC-MK7 STD EOD 2" xfId="657"/>
     <cellStyle name="输入 3 5 2" xfId="658"/>
     <cellStyle name="输入 3 6" xfId="659"/>
     <cellStyle name="输入 3 7" xfId="660"/>
@@ -30379,10 +30405,10 @@
     <cellStyle name="输入 6" xfId="672"/>
     <cellStyle name="输入 6 2" xfId="673"/>
     <cellStyle name="输入 7" xfId="674"/>
-    <cellStyle name="注释 3" xfId="675"/>
-    <cellStyle name="输入 7 2" xfId="676"/>
-    <cellStyle name="注释 4" xfId="677"/>
-    <cellStyle name="输入 7 3" xfId="678"/>
+    <cellStyle name="输入 7 2" xfId="675"/>
+    <cellStyle name="注释 3" xfId="676"/>
+    <cellStyle name="输入 7 3" xfId="677"/>
+    <cellStyle name="注释 4" xfId="678"/>
     <cellStyle name="输入 8" xfId="679"/>
     <cellStyle name="昗弨_JP_NEW_9512" xfId="680"/>
     <cellStyle name="寘嬫愗傝 [0.00]_laroux" xfId="681"/>
@@ -36434,9 +36460,9 @@
   <dimension ref="A1:AI995"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -39057,7 +39083,7 @@
       </c>
       <c r="Q45" s="57"/>
     </row>
-    <row r="46" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="46" s="3" customFormat="1" ht="37.5" spans="1:17">
       <c r="A46" s="26">
         <v>1334</v>
       </c>
@@ -48993,7 +49019,7 @@
       </c>
       <c r="Q335" s="21"/>
     </row>
-    <row r="336" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="336" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A336" s="26">
         <v>2364</v>
       </c>
@@ -49079,7 +49105,7 @@
       </c>
       <c r="Q337" s="21"/>
     </row>
-    <row r="338" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="338" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A338" s="26">
         <v>2366</v>
       </c>
@@ -49161,7 +49187,7 @@
       </c>
       <c r="Q339" s="21"/>
     </row>
-    <row r="340" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="340" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A340" s="26">
         <v>2368</v>
       </c>
@@ -49202,7 +49228,7 @@
       </c>
       <c r="Q340" s="21"/>
     </row>
-    <row r="341" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="341" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A341" s="26">
         <v>2369</v>
       </c>
@@ -49247,7 +49273,7 @@
       </c>
       <c r="Q341" s="21"/>
     </row>
-    <row r="342" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="342" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A342" s="26">
         <v>2370</v>
       </c>
@@ -49288,7 +49314,7 @@
       </c>
       <c r="Q342" s="21"/>
     </row>
-    <row r="343" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="343" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A343" s="26">
         <v>2371</v>
       </c>
@@ -49329,7 +49355,7 @@
       </c>
       <c r="Q343" s="21"/>
     </row>
-    <row r="344" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="344" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A344" s="26">
         <v>2372</v>
       </c>
@@ -49370,7 +49396,7 @@
       </c>
       <c r="Q344" s="21"/>
     </row>
-    <row r="345" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="345" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A345" s="26">
         <v>2373</v>
       </c>
@@ -49411,7 +49437,7 @@
       </c>
       <c r="Q345" s="21"/>
     </row>
-    <row r="346" s="7" customFormat="1" ht="12" spans="1:17">
+    <row r="346" s="7" customFormat="1" spans="1:17">
       <c r="A346" s="26"/>
       <c r="B346" s="21"/>
       <c r="C346" s="31"/>
@@ -49430,7 +49456,7 @@
       <c r="P346" s="52"/>
       <c r="Q346" s="21"/>
     </row>
-    <row r="347" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="347" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A347" s="26">
         <v>2374</v>
       </c>
@@ -49473,7 +49499,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="348" s="3" customFormat="1" ht="31.5" spans="1:17">
+    <row r="348" s="3" customFormat="1" ht="33.75" spans="1:17">
       <c r="A348" s="26">
         <v>2375</v>
       </c>
@@ -49516,7 +49542,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="349" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="349" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A349" s="26">
         <v>2376</v>
       </c>
@@ -49559,7 +49585,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="350" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="350" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A350" s="26">
         <v>2377</v>
       </c>
@@ -49602,7 +49628,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="351" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="351" s="7" customFormat="1" ht="38.25" spans="1:17">
       <c r="A351" s="26">
         <v>2378</v>
       </c>
@@ -49645,7 +49671,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="352" s="7" customFormat="1" ht="12" spans="1:17">
+    <row r="352" s="7" customFormat="1" spans="1:17">
       <c r="A352" s="26"/>
       <c r="B352" s="21"/>
       <c r="C352" s="31"/>
@@ -65202,7 +65228,7 @@
       <c r="P792" s="26"/>
       <c r="Q792" s="21"/>
     </row>
-    <row r="793" s="7" customFormat="1" ht="24" spans="1:17">
+    <row r="793" s="7" customFormat="1" ht="25.5" spans="1:17">
       <c r="A793" s="33">
         <v>4623</v>
       </c>
@@ -65237,7 +65263,7 @@
       <c r="P793" s="26"/>
       <c r="Q793" s="21"/>
     </row>
-    <row r="794" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="794" s="7" customFormat="1" ht="25.5" spans="1:17">
       <c r="A794" s="33">
         <v>4624</v>
       </c>
@@ -65307,7 +65333,7 @@
       <c r="P795" s="26"/>
       <c r="Q795" s="21"/>
     </row>
-    <row r="796" s="7" customFormat="1" ht="36" spans="1:17">
+    <row r="796" s="7" customFormat="1" ht="25.5" spans="1:17">
       <c r="A796" s="33">
         <v>4626</v>
       </c>
